--- a/data/s_vals/2022/beede_tyler.xlsx
+++ b/data/s_vals/2022/beede_tyler.xlsx
@@ -472,22 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.539653030276356</v>
+        <v>0.6606524410359556</v>
       </c>
       <c r="C2" t="n">
-        <v>1.307360055219643</v>
+        <v>1.655778082260271</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4893031109320483</v>
+        <v>0.7527432677738641</v>
       </c>
       <c r="E2" t="n">
-        <v>1.910992563374965</v>
+        <v>1133.036916526867</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>5.247308759803013</v>
+        <v>1136.106090317938</v>
       </c>
     </row>
     <row r="3">
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.642121602190766</v>
+        <v>3.286832544864788</v>
       </c>
       <c r="C3" t="n">
-        <v>1.307360055219643</v>
+        <v>1.655778082260271</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2181074402325811</v>
+        <v>0.1494219747398047</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8185319587781588</v>
+        <v>10.19245300693656</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>5.986121056421149</v>
+        <v>15.28448560880142</v>
       </c>
     </row>
     <row r="4">
@@ -522,22 +522,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6717081370404667</v>
+        <v>0.1190320826869504</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5246911461486936</v>
+        <v>0.306821227259698</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2181074402325811</v>
+        <v>0.1494219747398047</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8185319587781588</v>
+        <v>10.19245300693656</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>2.2330386821999</v>
+        <v>10.76772829162301</v>
       </c>
     </row>
   </sheetData>

--- a/data/s_vals/2022/beede_tyler.xlsx
+++ b/data/s_vals/2022/beede_tyler.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>sum</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Save</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,9 @@
       <c r="G2" t="n">
         <v>1136.106090317938</v>
       </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -514,6 +522,9 @@
       <c r="G3" t="n">
         <v>15.28448560880142</v>
       </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -538,6 +549,9 @@
       </c>
       <c r="G4" t="n">
         <v>10.76772829162301</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/s_vals/2022/beede_tyler.xlsx
+++ b/data/s_vals/2022/beede_tyler.xlsx
@@ -477,22 +477,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6606524410359556</v>
+        <v>0.6545652718822623</v>
       </c>
       <c r="C2" t="n">
-        <v>1.655778082260271</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7527432677738641</v>
+        <v>0.7210945179870265</v>
       </c>
       <c r="E2" t="n">
-        <v>1133.036916526867</v>
+        <v>2797.565817734744</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1136.106090317938</v>
+        <v>2800.568465224155</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -505,22 +505,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.286832544864788</v>
+        <v>3.272327238179451</v>
       </c>
       <c r="C3" t="n">
-        <v>1.655778082260271</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1494219747398047</v>
+        <v>0.1496068669990043</v>
       </c>
       <c r="E3" t="n">
-        <v>10.19245300693656</v>
+        <v>13.86384647080068</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>15.28448560880142</v>
+        <v>18.91276827552123</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -533,22 +533,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1190320826869504</v>
+        <v>0.1169995834814548</v>
       </c>
       <c r="C4" t="n">
-        <v>0.306821227259698</v>
+        <v>0.3048912486333797</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1494219747398047</v>
+        <v>0.1496068669990043</v>
       </c>
       <c r="E4" t="n">
-        <v>10.19245300693656</v>
+        <v>13.86384647080068</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>10.76772829162301</v>
+        <v>14.43534416991452</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
